--- a/nodes_source_analyses/molecules/molecules/molecules_production_synthetic_kerosene_co2.xlsx
+++ b/nodes_source_analyses/molecules/molecules/molecules_production_synthetic_kerosene_co2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/molecules/molecules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8737AB-1B4C-6442-9265-4F124914A354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40F9D0E-3AB2-6749-9CE6-43DBE7E16F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="27180" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27060" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="248">
   <si>
     <t>Source</t>
   </si>
@@ -724,9 +724,6 @@
     <t xml:space="preserve">Investment </t>
   </si>
   <si>
-    <t>Hoeveel CO nodig voor 10 PJ olieproducten?</t>
-  </si>
-  <si>
     <t>PJ/year</t>
   </si>
   <si>
@@ -806,6 +803,12 @@
   </si>
   <si>
     <t>molecules_production_synthetic_kerosene_co2</t>
+  </si>
+  <si>
+    <t>Hoeveel CO nodig voor 1 PJ olieproducten?</t>
+  </si>
+  <si>
+    <t>AANNAME: GEEN VERLIEZEN</t>
   </si>
 </sst>
 </file>
@@ -813,10 +816,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="[$-413]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="[$-413]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1050,6 +1053,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1942,7 +1952,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2037,7 +2047,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2087,13 +2097,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2123,7 +2133,7 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2149,6 +2159,20 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2175,19 +2199,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="496">
@@ -2879,6 +2890,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>562008</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>215899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40639D49-8946-BA4C-8C28-4E4A41F4546D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="914400"/>
+          <a:ext cx="8817008" cy="11163299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3383,7 +3438,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3418,7 +3473,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3587,36 +3642,36 @@
       <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="158"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="161"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="167"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="164"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="170"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
@@ -3688,15 +3743,15 @@
     </row>
     <row r="12" spans="1:10" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B12" s="93"/>
-      <c r="C12" s="165" t="s">
-        <v>244</v>
+      <c r="C12" s="156" t="s">
+        <v>243</v>
       </c>
       <c r="D12" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="169">
+      <c r="E12" s="160">
         <f>'Research data'!H7</f>
-        <v>1.0870437202667023</v>
+        <v>0.11093668236525381</v>
       </c>
       <c r="F12" s="89"/>
       <c r="G12" s="95"/>
@@ -3829,9 +3884,9 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:P7"/>
+  <dimension ref="B2:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7:J7"/>
     </sheetView>
   </sheetViews>
@@ -3889,7 +3944,7 @@
       </c>
       <c r="I4" s="75"/>
       <c r="J4" s="75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K4" s="75"/>
       <c r="L4" s="75"/>
@@ -3927,25 +3982,25 @@
     </row>
     <row r="7" spans="2:16" ht="18" customHeight="1" thickBot="1">
       <c r="B7" s="37"/>
-      <c r="C7" s="165" t="s">
-        <v>244</v>
+      <c r="C7" s="156" t="s">
+        <v>243</v>
       </c>
       <c r="D7" s="90" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="94"/>
       <c r="F7" s="90" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G7" s="76"/>
-      <c r="H7" s="166">
+      <c r="H7" s="157">
         <f>J7</f>
-        <v>1.0870437202667023</v>
-      </c>
-      <c r="I7" s="167"/>
-      <c r="J7" s="168">
+        <v>0.11093668236525381</v>
+      </c>
+      <c r="I7" s="158"/>
+      <c r="J7" s="159">
         <f>Notes!D11</f>
-        <v>1.0870437202667023</v>
+        <v>0.11093668236525381</v>
       </c>
       <c r="K7" s="39"/>
     </row>
@@ -3962,8 +4017,8 @@
   </sheetPr>
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
@@ -4060,22 +4115,22 @@
         <v>195</v>
       </c>
       <c r="C7" s="154" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="154" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E7" s="154" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F7" s="43">
         <v>2020</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -4233,7 +4288,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="F19" s="154" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4250,8 +4305,8 @@
   </sheetPr>
   <dimension ref="A1:P294"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
@@ -4326,7 +4381,7 @@
       <c r="A5" s="55"/>
       <c r="B5" s="97"/>
       <c r="C5" s="98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -4376,7 +4431,7 @@
         <v>8322</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F7" s="151" t="s">
         <v>195</v>
@@ -4398,7 +4453,7 @@
       </c>
       <c r="D8" s="142">
         <f>D25+D51</f>
-        <v>484027777.77777779</v>
+        <v>318402777.77777779</v>
       </c>
       <c r="E8" s="58" t="s">
         <v>15</v>
@@ -4421,7 +4476,7 @@
       </c>
       <c r="D9" s="142">
         <f>D27+D53</f>
-        <v>17520833.333333336</v>
+        <v>12552083.333333334</v>
       </c>
       <c r="E9" s="58" t="s">
         <v>15</v>
@@ -4457,11 +4512,11 @@
       <c r="B11" s="97"/>
       <c r="C11" s="58"/>
       <c r="D11" s="106">
-        <f>(D67*1000)/(SUM(E101,E102)*1000000000)</f>
-        <v>1.0870437202667023</v>
+        <f>(D67*1000)/(SUM(D36:D37)*1000000000)</f>
+        <v>0.11093668236525381</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="98"/>
       <c r="G11" s="98"/>
@@ -4477,7 +4532,7 @@
       <c r="A12" s="55"/>
       <c r="B12" s="102"/>
       <c r="C12" s="98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D12" s="101"/>
       <c r="F12" s="58" t="s">
@@ -4500,14 +4555,14 @@
       </c>
       <c r="D13" s="101">
         <f>D66+D40</f>
-        <v>11.000040367795471</v>
+        <v>1.1180040367795472</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>197</v>
       </c>
       <c r="F13" s="58">
         <f>D13/D15</f>
-        <v>0.92359387777890134</v>
+        <v>0.55128294446342818</v>
       </c>
       <c r="G13" s="98"/>
       <c r="H13" s="58"/>
@@ -4533,7 +4588,7 @@
       </c>
       <c r="F14" s="58">
         <f>D14/D15</f>
-        <v>7.6406122221098702E-2</v>
+        <v>0.44871705553657187</v>
       </c>
       <c r="G14" s="98"/>
       <c r="H14" s="58"/>
@@ -4548,11 +4603,11 @@
       <c r="A15" s="55"/>
       <c r="B15" s="97"/>
       <c r="C15" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D15" s="101">
         <f>SUM(D13:D14)</f>
-        <v>11.910040367795471</v>
+        <v>2.0280040367795471</v>
       </c>
       <c r="E15" s="58"/>
       <c r="F15" s="58"/>
@@ -4617,7 +4672,7 @@
       <c r="A19" s="55"/>
       <c r="B19" s="97"/>
       <c r="C19" s="98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="98"/>
@@ -4660,7 +4715,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F21" s="51" t="s">
         <v>199</v>
@@ -4682,7 +4737,7 @@
         <v>2777777.7777777775</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H22" s="58"/>
       <c r="I22" s="58"/>
@@ -4808,7 +4863,7 @@
         <v>0.88</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F28" s="58"/>
       <c r="G28" s="98"/>
@@ -5144,15 +5199,15 @@
       <c r="A45" s="55"/>
       <c r="B45" s="97"/>
       <c r="C45" s="58" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="D45" s="58"/>
       <c r="E45" s="58">
-        <f>D21*D42</f>
-        <v>5.3000000000000007</v>
+        <f>D42</f>
+        <v>0.53</v>
       </c>
       <c r="F45" s="58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G45" s="98"/>
       <c r="H45" s="58"/>
@@ -5172,7 +5227,7 @@
         <v>1000</v>
       </c>
       <c r="F46" s="58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G46" s="98"/>
       <c r="H46" s="58"/>
@@ -5190,10 +5245,10 @@
       <c r="D47" s="58"/>
       <c r="E47" s="58">
         <f>E45*1000000000/E91</f>
-        <v>529470529.47052956</v>
+        <v>52947052.947052948</v>
       </c>
       <c r="F47" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G47" s="98"/>
       <c r="H47" s="58"/>
@@ -5211,10 +5266,10 @@
       <c r="D48" s="58"/>
       <c r="E48" s="58">
         <f>E47/E46</f>
-        <v>529470.52947052952</v>
+        <v>52947.052947052951</v>
       </c>
       <c r="F48" s="58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G48" s="98"/>
       <c r="H48" s="58"/>
@@ -5272,7 +5327,7 @@
       <c r="C51" s="58"/>
       <c r="D51" s="58">
         <f>D50*D57*1000</f>
-        <v>184027777.77777779</v>
+        <v>18402777.777777776</v>
       </c>
       <c r="E51" s="58"/>
       <c r="F51" s="58"/>
@@ -5313,7 +5368,7 @@
       <c r="C53" s="58"/>
       <c r="D53" s="58">
         <f>D51*D52/100</f>
-        <v>5520833.333333334</v>
+        <v>552083.33333333326</v>
       </c>
       <c r="E53" s="58" t="s">
         <v>15</v>
@@ -5348,14 +5403,14 @@
       <c r="A55" s="55"/>
       <c r="B55" s="97"/>
       <c r="C55" s="58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D55" s="58">
         <f>E45</f>
-        <v>5.3000000000000007</v>
+        <v>0.53</v>
       </c>
       <c r="E55" s="58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F55" s="58"/>
       <c r="G55" s="98"/>
@@ -5373,10 +5428,10 @@
       <c r="C56" s="58"/>
       <c r="D56" s="58">
         <f>(D55/3.6)*1000000</f>
-        <v>1472222.2222222222</v>
+        <v>147222.22222222222</v>
       </c>
       <c r="E56" s="58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F56" s="58"/>
       <c r="G56" s="98"/>
@@ -5394,7 +5449,7 @@
       <c r="C57" s="58"/>
       <c r="D57" s="101">
         <f>D56/D58</f>
-        <v>184.02777777777777</v>
+        <v>18.402777777777779</v>
       </c>
       <c r="E57" s="58" t="s">
         <v>217</v>
@@ -5456,10 +5511,11 @@
       <c r="B60" s="97"/>
       <c r="C60" s="58"/>
       <c r="D60" s="58">
-        <v>0.63600000000000001</v>
+        <f>E79/E80</f>
+        <v>0.63636363636363635</v>
       </c>
       <c r="E60" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F60" s="58"/>
       <c r="G60" s="98"/>
@@ -5548,14 +5604,14 @@
       <c r="A65" s="55"/>
       <c r="B65" s="97"/>
       <c r="C65" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D65" s="101">
         <f>E48*E177</f>
-        <v>3050011213.2765198</v>
+        <v>305001121.32765198</v>
       </c>
       <c r="E65" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F65" s="58"/>
       <c r="G65" s="98"/>
@@ -5573,7 +5629,7 @@
       <c r="C66" s="58"/>
       <c r="D66" s="101">
         <f>D65*3.6/1000000000</f>
-        <v>10.980040367795471</v>
+        <v>1.0980040367795472</v>
       </c>
       <c r="E66" s="51" t="s">
         <v>197</v>
@@ -5595,20 +5651,23 @@
       </c>
       <c r="D67" s="51">
         <f>E48/D60</f>
-        <v>832500.83250083262</v>
+        <v>83202.51177394035</v>
       </c>
       <c r="E67" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="F67" s="161" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="B68" s="126"/>
       <c r="D68" s="51">
         <f>D67/1000000</f>
-        <v>0.83250083250083262</v>
+        <v>8.3202511773940349E-2</v>
       </c>
       <c r="E68" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="17" customHeight="1">
